--- a/results/hydrochar_lcia.xlsx
+++ b/results/hydrochar_lcia.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="34">
   <si>
     <t>Impact Assessment Method</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Electricity - Post-Processing</t>
+  </si>
+  <si>
+    <t>'transport, freight, lorry, all sizes, EURO6 to generic market for transport, freight, lorry, unspecified' (ton kilometer, RoW, None)</t>
+  </si>
+  <si>
+    <t>Transportation</t>
   </si>
 </sst>
 </file>
@@ -458,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -483,8 +489,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -503,13 +512,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -534,8 +546,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>8.03E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -560,8 +575,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.68E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -586,8 +604,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.06E-09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -612,8 +633,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>5.09E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -638,8 +662,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.32E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -664,8 +691,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.34E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -690,8 +720,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.23E-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -716,8 +749,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>6.83E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -742,8 +778,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>8.22E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -768,8 +807,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>2.68E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -793,6 +835,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>2.13E-08</v>
       </c>
     </row>
   </sheetData>
@@ -802,13 +847,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -827,8 +872,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -847,13 +895,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -878,8 +929,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>5.97E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -904,8 +958,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.25E-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -930,8 +987,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>7.889999999999999E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -956,8 +1016,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>3.78E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -982,8 +1045,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>9.86E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1008,8 +1074,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>9.989999999999999E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1034,8 +1103,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>9.13E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1132,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>5.08E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1161,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>6.12E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1112,8 +1190,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.99E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1137,6 +1218,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.58E-09</v>
       </c>
     </row>
   </sheetData>
@@ -1146,13 +1230,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -1171,8 +1255,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -1191,13 +1278,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1222,8 +1312,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>6.48E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1248,8 +1341,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.36E-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1274,8 +1370,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>8.559999999999999E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1300,8 +1399,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>4.11E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1326,8 +1428,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.07E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1352,8 +1457,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.08E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1378,8 +1486,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>9.91E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1404,8 +1515,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>5.51E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1430,8 +1544,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>6.64E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1456,8 +1573,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>2.16E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1481,6 +1601,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.72E-09</v>
       </c>
     </row>
   </sheetData>
@@ -1490,13 +1613,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -1515,8 +1638,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -1535,13 +1661,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1566,8 +1695,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>6.16E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1592,8 +1724,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.29E-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1753,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>8.14E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1644,8 +1782,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>3.9E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1670,8 +1811,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.02E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1696,8 +1840,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.03E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1722,8 +1869,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>9.419999999999999E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1748,8 +1898,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>5.24E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1774,8 +1927,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>6.31E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1800,8 +1956,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>2.06E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1825,6 +1984,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.64E-09</v>
       </c>
     </row>
   </sheetData>
@@ -1834,13 +1996,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -1859,8 +2021,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -1879,13 +2044,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1910,8 +2078,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>4.27E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1936,8 +2107,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>8.939999999999999E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1962,8 +2136,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>5.64E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1988,8 +2165,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>2.71E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2014,8 +2194,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>7.05E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2040,8 +2223,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>7.14E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2066,8 +2252,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>6.53E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2092,8 +2281,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>3.63E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2118,8 +2310,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>4.37E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2144,8 +2339,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.43E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2169,6 +2367,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.13E-09</v>
       </c>
     </row>
   </sheetData>
@@ -2178,13 +2379,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -2203,8 +2404,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -2223,13 +2427,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2254,8 +2461,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>3.78E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2280,8 +2490,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>7.920000000000001E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2306,8 +2519,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>5E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2332,8 +2548,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>2.4E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2358,8 +2577,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>6.24E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2384,8 +2606,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>6.33E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2410,8 +2635,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>5.78E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2436,8 +2664,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>3.22E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2462,8 +2693,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>3.87E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2488,8 +2722,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.26E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2513,6 +2750,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1E-09</v>
       </c>
     </row>
   </sheetData>
@@ -2522,13 +2762,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -2547,8 +2787,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -2567,13 +2810,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2598,8 +2844,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>3.61E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2624,8 +2873,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>7.56E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2902,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>4.77E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2676,8 +2931,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>2.29E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2702,8 +2960,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>5.96E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2728,8 +2989,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>6.04E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2754,8 +3018,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>5.52E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2780,8 +3047,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>3.07E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2806,8 +3076,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>3.7E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2832,8 +3105,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.21E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2857,6 +3133,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>9.590000000000001E-10</v>
       </c>
     </row>
   </sheetData>
@@ -2866,13 +3145,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -2891,8 +3170,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -2911,13 +3193,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2942,8 +3227,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>3.49E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2968,8 +3256,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>7.32E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2994,8 +3285,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>4.62E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3020,8 +3314,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>2.21E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3046,8 +3343,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>5.77E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3072,8 +3372,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>5.84E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3098,8 +3401,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>5.34E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3124,8 +3430,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>2.97E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3150,8 +3459,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>3.58E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3176,8 +3488,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.17E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3201,6 +3516,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>9.28E-10</v>
       </c>
     </row>
   </sheetData>
@@ -3210,13 +3528,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -3235,8 +3553,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -3255,13 +3576,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3286,8 +3610,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>3.66E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3312,8 +3639,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>7.66E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3338,8 +3668,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>4.83E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3364,8 +3697,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>2.32E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3390,8 +3726,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>6.04E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3416,8 +3755,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>6.12E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3442,8 +3784,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>5.590000000000001E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3468,8 +3813,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>3.11E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3494,8 +3842,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>3.75E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3520,8 +3871,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.22E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3545,6 +3899,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>9.710000000000001E-10</v>
       </c>
     </row>
   </sheetData>
@@ -3554,13 +3911,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -3579,8 +3936,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -3599,13 +3959,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3630,8 +3993,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>3.43E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3656,8 +4022,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>7.18E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3682,8 +4051,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>4.53E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3708,8 +4080,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>2.17E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3734,8 +4109,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>5.66E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3760,8 +4138,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>5.74E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3786,8 +4167,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>5.24E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3812,8 +4196,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>2.92E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3838,8 +4225,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>3.51E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3864,8 +4254,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.15E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3889,6 +4282,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>9.1E-10</v>
       </c>
     </row>
   </sheetData>
@@ -3898,13 +4294,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -3923,8 +4319,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -3943,13 +4342,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3974,8 +4376,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>5.28E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4000,8 +4405,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.1E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4026,8 +4434,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>6.97E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4052,8 +4463,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>3.34E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4078,8 +4492,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>8.71E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4104,8 +4521,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>8.829999999999999E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4130,8 +4550,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>8.07E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4156,8 +4579,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>4.49E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4182,8 +4608,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>5.41E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4208,8 +4637,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.76E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4233,6 +4665,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.4E-08</v>
       </c>
     </row>
   </sheetData>
@@ -4242,13 +4677,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -4267,8 +4702,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -4287,13 +4725,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4318,8 +4759,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>5.39E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4344,8 +4788,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.13E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4370,8 +4817,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>7.12E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4396,8 +4846,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>3.42E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4422,8 +4875,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>8.899999999999999E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4448,8 +4904,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>9.02E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4474,8 +4933,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4500,8 +4962,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>4.59E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4526,8 +4991,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>5.52E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4552,8 +5020,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.8E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4577,6 +5048,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.43E-08</v>
       </c>
     </row>
   </sheetData>
@@ -4586,13 +5060,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -4611,8 +5085,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -4631,13 +5108,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4662,8 +5142,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>5.76E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4688,8 +5171,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.21E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4714,8 +5200,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>7.61E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4740,8 +5229,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>3.65E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4766,8 +5258,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>9.51E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4792,8 +5287,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>9.64E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4818,8 +5316,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>8.81E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4844,8 +5345,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>4.9E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4870,8 +5374,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>5.9E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4896,8 +5403,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.92E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4921,6 +5431,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.53E-08</v>
       </c>
     </row>
   </sheetData>
@@ -4930,13 +5443,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -4955,8 +5468,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -4975,13 +5491,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5006,8 +5525,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>5.38E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5032,8 +5554,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.13E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5058,8 +5583,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>7.11E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5084,8 +5612,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>3.41E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5110,8 +5641,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>8.89E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5136,8 +5670,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>9E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5162,8 +5699,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>8.23E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5188,8 +5728,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>4.58E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5214,8 +5757,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>5.52E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5240,8 +5786,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.8E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5265,6 +5814,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.43E-08</v>
       </c>
     </row>
   </sheetData>
@@ -5274,13 +5826,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -5299,8 +5851,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -5319,13 +5874,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5350,8 +5908,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>5.12E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5376,8 +5937,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.07E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5402,8 +5966,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>6.77E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5428,8 +5995,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>3.25E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5454,8 +6024,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>8.45E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5480,8 +6053,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>8.57E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5506,8 +6082,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>7.83E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5532,8 +6111,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>4.36E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5558,8 +6140,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>5.25E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5584,8 +6169,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.71E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5609,6 +6197,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.36E-08</v>
       </c>
     </row>
   </sheetData>
@@ -5618,13 +6209,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -5643,8 +6234,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -5663,13 +6257,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5694,8 +6291,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>7.24E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5720,8 +6320,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.52E-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5746,8 +6349,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>9.57E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5772,8 +6378,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>4.59E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5798,8 +6407,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.2E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5824,8 +6436,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.21E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5850,8 +6465,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.11E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5876,8 +6494,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>6.16E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5902,8 +6523,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>7.42E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5928,8 +6552,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>2.42E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5953,6 +6580,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.92E-09</v>
       </c>
     </row>
   </sheetData>
@@ -5962,13 +6592,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -5987,8 +6617,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -6007,13 +6640,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6038,8 +6674,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>5.67E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6064,8 +6703,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.19E-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6090,8 +6732,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>7.489999999999999E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6116,8 +6761,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>3.59E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6142,8 +6790,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>9.36E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6168,8 +6819,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>9.480000000000001E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6194,8 +6848,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>8.67E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6220,8 +6877,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>4.82E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6246,8 +6906,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>5.81E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6272,8 +6935,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.89E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6297,6 +6963,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.51E-09</v>
       </c>
     </row>
   </sheetData>
@@ -6306,13 +6975,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -6331,8 +7000,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -6351,13 +7023,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6382,8 +7057,11 @@
       <c r="H4">
         <v>2.26E-06</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>5.94E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6408,8 +7086,11 @@
       <c r="H5">
         <v>3.51E-05</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1.24E-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6434,8 +7115,11 @@
       <c r="H6">
         <v>1.83E-07</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>7.85E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6460,8 +7144,11 @@
       <c r="H7">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>3.77E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6486,8 +7173,11 @@
       <c r="H8">
         <v>5.84E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>9.81E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6512,8 +7202,11 @@
       <c r="H9">
         <v>1.86E-08</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>9.94E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6538,8 +7231,11 @@
       <c r="H10">
         <v>2.59E-13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>9.09E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6564,8 +7260,11 @@
       <c r="H11">
         <v>1.28E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>5.06E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6590,8 +7289,11 @@
       <c r="H12">
         <v>1.25E-12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>6.09E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6616,8 +7318,11 @@
       <c r="H13">
         <v>2.53E-08</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>1.99E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6641,6 +7346,9 @@
       </c>
       <c r="H14">
         <v>2.91E-06</v>
+      </c>
+      <c r="I14">
+        <v>1.58E-09</v>
       </c>
     </row>
   </sheetData>

--- a/results/hydrochar_lcia.xlsx
+++ b/results/hydrochar_lcia.xlsx
@@ -114,7 +114,7 @@
     <t>Heat-HTC</t>
   </si>
   <si>
-    <t>'Carbon dioxide, non-fossil, resource correction' (kg, None, None)</t>
+    <t>'Carbon dioxide, non-fossil, resource correction' (kilogram, None, ('natural resource', 'in air'))</t>
   </si>
   <si>
     <t>CO2 - HTC</t>

--- a/results/hydrochar_lcia.xlsx
+++ b/results/hydrochar_lcia.xlsx
@@ -114,7 +114,7 @@
     <t>Heat-HTC</t>
   </si>
   <si>
-    <t>'Carbon dioxide, non-fossil, resource correction' (kilogram, None, ('natural resource', 'in air'))</t>
+    <t>'Carbon dioxide, non-fossil, resource correction' (kg, None, None)</t>
   </si>
   <si>
     <t>CO2 - HTC</t>
